--- a/ui/cypress/fixtures/customer.xlsx
+++ b/ui/cypress/fixtures/customer.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">companiesPrimaryNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer</t>
   </si>
   <si>
     <t xml:space="preserve">Life</t>
@@ -200,27 +206,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="14" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="16.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -250,37 +255,43 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1265,8 +1276,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="lifeisgood@gmail.com"/>
-    <hyperlink ref="K2" r:id="rId2" display="lifeisgood@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="lifeisgood@gmail.com"/>
+    <hyperlink ref="L2" r:id="rId2" display="lifeisgood@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
